--- a/Base/Teams/Lions/Players Stats.xlsx
+++ b/Base/Teams/Lions/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Lions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Lions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6043121E-1921-4C13-8F11-3275B5968FEC}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B18451-8343-431B-B132-5B3358AF901A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>J.Reynolds</t>
+  </si>
+  <si>
+    <t>C.Reynolds</t>
+  </si>
+  <si>
+    <t>S.Zylstra</t>
   </si>
 </sst>
 </file>
@@ -642,10 +648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,6 +845,38 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1219,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BC04A-82E2-43FD-B050-62440FD9F359}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,6 +1422,38 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Lions/Players Stats.xlsx
+++ b/Base/Teams/Lions/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Lions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B18451-8343-431B-B132-5B3358AF901A}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82EE1FA3-6B73-4CB3-AAC9-6EB014379237}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>A.St. Brown</t>
   </si>
   <si>
-    <t>A.Rosas</t>
-  </si>
-  <si>
     <t>J.Reynolds</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>S.Zylstra</t>
+  </si>
+  <si>
+    <t>R.Patterson</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1259,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763BC04A-82E2-43FD-B050-62440FD9F359}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2CE9E-CE47-4052-980F-01FA7876F857}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
